--- a/survey_question_to_db/question_and_answer.xlsx
+++ b/survey_question_to_db/question_and_answer.xlsx
@@ -773,8 +773,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>나의 피부톤은 어떻다고 생각하나요?
-(관련성에 대한 의문이 잔재)</t>
+          <t>나의 피부톤은 어떻다고 생각하나요?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
